--- a/DRE/cap08-BasesDeDatos/IPT_ACRM_BD9_Claims_150522.xlsx
+++ b/DRE/cap08-BasesDeDatos/IPT_ACRM_BD9_Claims_150522.xlsx
@@ -9,19 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="75" windowWidth="15315" windowHeight="7740" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="75" windowWidth="15315" windowHeight="7740" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Access -campos" sheetId="1" r:id="rId1"/>
-    <sheet name="BD9 Claims." sheetId="2" r:id="rId2"/>
-    <sheet name="Hoja1" sheetId="4" r:id="rId3"/>
+    <sheet name="BD9 Claims" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="64">
   <si>
     <t>Claim_Id</t>
   </si>
@@ -136,9 +135,6 @@
   </si>
   <si>
     <t>Technical resolution date</t>
-  </si>
-  <si>
-    <t>campo "resp. Ident."</t>
   </si>
   <si>
     <t>Matriz</t>
@@ -229,7 +225,7 @@
   <numFmts count="1">
     <numFmt numFmtId="7" formatCode="#,##0.00\ &quot;€&quot;;\-#,##0.00\ &quot;€&quot;"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -246,25 +242,6 @@
     <font>
       <sz val="10"/>
       <color indexed="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -340,7 +317,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -438,22 +415,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -467,80 +435,45 @@
     <xf numFmtId="7" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -992,426 +925,212 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:G10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" customWidth="1"/>
-    <col min="7" max="7" width="40.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28" style="5" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="23" style="5" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="43.42578125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" style="5" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="13" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:8" s="14" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="12"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="14"/>
-      <c r="B3" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="15" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
-      <c r="B6" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="14" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="14"/>
-      <c r="B7" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="14" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
-      <c r="B8" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="14" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
-      <c r="B9" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="14" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
-      <c r="B10" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="14" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="5"/>
-    </row>
-    <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="5"/>
-    </row>
-    <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B15" s="5"/>
-    </row>
-    <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="5"/>
-    </row>
-    <row r="17" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B17" s="6"/>
-    </row>
-    <row r="18" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="5"/>
-    </row>
-    <row r="19" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B19" s="5"/>
-    </row>
-    <row r="20" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B20" s="5"/>
-    </row>
-    <row r="21" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="6"/>
-    </row>
-    <row r="22" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B22" s="6"/>
-    </row>
-    <row r="23" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="7"/>
-    </row>
-    <row r="24" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B24" s="6"/>
-    </row>
-    <row r="25" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="6"/>
-    </row>
-    <row r="26" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B26" s="6"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H10"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="4.140625" style="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28" style="18" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" style="18" customWidth="1"/>
-    <col min="4" max="4" width="23" style="18" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" style="18" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" style="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="43.42578125" style="18" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" style="18" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="18"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" s="27" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="F1" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="G1" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="H1" s="28"/>
+      <c r="H1" s="15"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="20" t="s">
-        <v>43</v>
+      <c r="B2" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="9"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="7" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="G3" s="20" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="24" t="s">
-        <v>60</v>
+      <c r="B4" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="11" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="G5" s="20" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="G6" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="H6" s="26"/>
+      <c r="H6" s="13"/>
     </row>
     <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C7" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="H7" s="26"/>
+      <c r="H7" s="13"/>
     </row>
     <row r="8" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="25"/>
-      <c r="B8" s="23" t="s">
+      <c r="A8" s="12"/>
+      <c r="B8" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="C8" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="D8" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="G8" s="20" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="25"/>
-      <c r="B9" s="23" t="s">
+      <c r="A9" s="12"/>
+      <c r="B9" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="20" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="25"/>
-      <c r="B10" s="23" t="s">
+      <c r="A10" s="12"/>
+      <c r="B10" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="D10" s="22"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="20" t="s">
-        <v>55</v>
+      <c r="C10" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="7" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
